--- a/planning/assets/formatsXlsx/Medidas_Productos.xlsx
+++ b/planning/assets/formatsXlsx/Medidas_Productos.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>referencia_producto</t>
   </si>
   <si>
     <t>producto</t>
-  </si>
-  <si>
-    <t>gramaje</t>
   </si>
   <si>
     <t>ancho</t>
@@ -170,18 +167,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:I6"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:H6"/>
+  <tableColumns count="8">
     <tableColumn name="referencia_producto" id="1"/>
     <tableColumn name="producto" id="2"/>
-    <tableColumn name="gramaje" id="3"/>
-    <tableColumn name="ancho" id="4"/>
-    <tableColumn name="alto" id="5"/>
-    <tableColumn name="largo" id="6"/>
-    <tableColumn name="largo_util" id="7"/>
-    <tableColumn name="ancho_total" id="8"/>
-    <tableColumn name="ventanilla" id="9"/>
+    <tableColumn name="ancho" id="3"/>
+    <tableColumn name="alto" id="4"/>
+    <tableColumn name="largo" id="5"/>
+    <tableColumn name="largo_util" id="6"/>
+    <tableColumn name="ancho_total" id="7"/>
+    <tableColumn name="ventanilla" id="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -475,7 +471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -483,13 +479,12 @@
   <cols>
     <col min="1" max="1" style="6" width="40.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -517,11 +512,8 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -530,7 +522,6 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3"/>
@@ -541,7 +532,6 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3"/>
@@ -552,7 +542,6 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3"/>
@@ -563,7 +552,6 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3"/>
@@ -574,7 +562,6 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/assets/formatsXlsx/Medidas_Productos.xlsx
+++ b/planning/assets/formatsXlsx/Medidas_Productos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>referencia_producto</t>
   </si>
@@ -22,6 +22,9 @@
     <t>producto</t>
   </si>
   <si>
+    <t>tipo_producto</t>
+  </si>
+  <si>
     <t>ancho</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>ventanilla</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,6 +148,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -167,17 +176,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:H6"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:I6"/>
+  <tableColumns count="9">
     <tableColumn name="referencia_producto" id="1"/>
     <tableColumn name="producto" id="2"/>
-    <tableColumn name="ancho" id="3"/>
-    <tableColumn name="alto" id="4"/>
-    <tableColumn name="largo" id="5"/>
-    <tableColumn name="largo_util" id="6"/>
-    <tableColumn name="ancho_total" id="7"/>
-    <tableColumn name="ventanilla" id="8"/>
+    <tableColumn name="tipo_producto" id="3"/>
+    <tableColumn name="ancho" id="4"/>
+    <tableColumn name="alto" id="5"/>
+    <tableColumn name="largo" id="6"/>
+    <tableColumn name="largo_util" id="7"/>
+    <tableColumn name="ancho_total" id="8"/>
+    <tableColumn name="ventanilla" id="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -471,20 +481,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="40.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="40.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="40.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -494,7 +505,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -511,57 +522,67 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/assets/formatsXlsx/Medidas_Productos.xlsx
+++ b/planning/assets/formatsXlsx/Medidas_Productos.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5520925-2D01-4F6F-94CA-2E15C42258F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>referencia_producto</t>
   </si>
@@ -44,13 +50,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>origen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,61 +143,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:I6"/>
-  <tableColumns count="9">
-    <tableColumn name="referencia_producto" id="1"/>
-    <tableColumn name="producto" id="2"/>
-    <tableColumn name="tipo_producto" id="3"/>
-    <tableColumn name="ancho" id="4"/>
-    <tableColumn name="alto" id="5"/>
-    <tableColumn name="largo" id="6"/>
-    <tableColumn name="largo_util" id="7"/>
-    <tableColumn name="ancho_total" id="8"/>
-    <tableColumn name="ventanilla" id="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0">
+  <autoFilter ref="A1:J6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="referencia_producto"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="producto"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tipo_producto"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ancho"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="alto"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="largo"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="largo_util"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ancho_total"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ventanilla"/>
+    <tableColumn id="11" xr3:uid="{2658BC02-5A2D-4EEB-9C8D-85527E41C14C}" name="origen"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -198,10 +205,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -239,71 +246,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,7 +338,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -354,11 +361,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -367,13 +374,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -383,7 +390,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -392,7 +399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -401,7 +408,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -409,10 +416,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -477,28 +484,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="40.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="33.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,65 +536,39 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{92EB39BE-B687-4502-89AF-131AEF9B56C1}">
+      <formula1>"COMERCIALIZADO,MANUFACTURADO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/planning/assets/formatsXlsx/Medidas_Productos.xlsx
+++ b/planning/assets/formatsXlsx/Medidas_Productos.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5520925-2D01-4F6F-94CA-2E15C42258F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +43,7 @@
     <t>ventanilla</t>
   </si>
   <si>
-    <t/>
+    <t>tinta</t>
   </si>
   <si>
     <t>origen</t>
@@ -58,7 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,60 +138,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:J6" totalsRowShown="0">
-  <autoFilter ref="A1:J6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="referencia_producto"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="producto"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tipo_producto"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ancho"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="alto"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="largo"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="largo_util"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ancho_total"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ventanilla"/>
-    <tableColumn id="11" xr3:uid="{2658BC02-5A2D-4EEB-9C8D-85527E41C14C}" name="origen"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:K6"/>
+  <tableColumns count="11">
+    <tableColumn name="referencia_producto" id="1"/>
+    <tableColumn name="producto" id="2"/>
+    <tableColumn name="tipo_producto" id="3"/>
+    <tableColumn name="ancho" id="4"/>
+    <tableColumn name="alto" id="5"/>
+    <tableColumn name="largo" id="6"/>
+    <tableColumn name="largo_util" id="7"/>
+    <tableColumn name="ancho_total" id="8"/>
+    <tableColumn name="ventanilla" id="9"/>
+    <tableColumn name="tinta" id="10"/>
+    <tableColumn name="origen" id="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -205,10 +203,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -246,71 +244,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -338,7 +336,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -361,11 +359,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -374,13 +372,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +388,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -399,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -408,7 +406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -416,10 +414,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -484,31 +482,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" style="7" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="59.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,39 +533,79 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{92EB39BE-B687-4502-89AF-131AEF9B56C1}">
-      <formula1>"COMERCIALIZADO,MANUFACTURADO"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/planning/assets/formatsXlsx/Medidas_Productos.xlsx
+++ b/planning/assets/formatsXlsx/Medidas_Productos.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993E563-1672-4BE9-8906-9CAC65FE8B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>referencia_producto</t>
   </si>
@@ -47,13 +53,15 @@
   </si>
   <si>
     <t>origen</t>
+  </si>
+  <si>
+    <t>compuesto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -134,67 +142,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K6" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:K6"/>
-  <tableColumns count="11">
-    <tableColumn name="referencia_producto" id="1"/>
-    <tableColumn name="producto" id="2"/>
-    <tableColumn name="tipo_producto" id="3"/>
-    <tableColumn name="ancho" id="4"/>
-    <tableColumn name="alto" id="5"/>
-    <tableColumn name="largo" id="6"/>
-    <tableColumn name="largo_util" id="7"/>
-    <tableColumn name="ancho_total" id="8"/>
-    <tableColumn name="ventanilla" id="9"/>
-    <tableColumn name="tinta" id="10"/>
-    <tableColumn name="origen" id="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:L6" totalsRowShown="0">
+  <autoFilter ref="A1:L6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="referencia_producto"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="producto"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tipo_producto" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ancho"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="alto" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="largo"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="largo_util" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ancho_total"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ventanilla" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="tinta"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="origen" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{E264180B-2AC6-486D-A2FA-3B197003E1ED}" name="compuesto" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -203,10 +372,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -244,71 +413,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -336,7 +505,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -359,11 +528,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -372,13 +541,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -388,7 +557,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -397,7 +566,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -406,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -414,10 +583,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -482,55 +651,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="59.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="32.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="33.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -539,73 +711,69 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{C3BBC61C-3A60-4E84-B80B-2EB35EF666E0}">
+      <formula1>"COMERCIALIZADO,MANUFACTURADO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{99DC7A3C-2EE4-417A-B6EB-F70884F3824E}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
